--- a/xlsx/内陆帝国_intext.xlsx
+++ b/xlsx/内陆帝国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>内陆帝国</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%B8%9D%E5%9C%8B_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>內陸帝國 (消歧義)</t>
+    <t>内陆帝国 (消歧义)</t>
   </si>
   <si>
     <t>政策_政策_加州_内陆帝国</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BC%97%E8%B5%9B%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -89,37 +89,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣</t>
+    <t>圣贝纳迪诺县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%A1%94%E7%B4%8D_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>方塔納 (加利福尼亞州)</t>
+    <t>方塔纳 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%9B%B7%E8%AB%BE%E8%B0%B7</t>
   </si>
   <si>
-    <t>莫雷諾谷</t>
+    <t>莫雷诺谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%8D%A1%E8%92%99%E6%A0%BC%E7%89%A7%E5%A0%B4_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫卡蒙格牧場 (加利福尼亞州)</t>
+    <t>库卡蒙格牧场 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B4%9B%E7%B4%8D_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科洛納 (加利福尼亞州)</t>
+    <t>科洛纳 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%A4%9A%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -197,33 +197,30 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%9A%E7%B4%8D%E8%BF%AA%E8%AB%BE%E9%83%A1</t>
   </si>
   <si>
-    <t>聖博納迪諾郡</t>
+    <t>圣博纳迪诺郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>海外華人</t>
+    <t>海外华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%9A%E5%8C%BA</t>
   </si>
   <si>
-    <t>都会区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
   </si>
   <si>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E9%83%A1</t>
   </si>
   <si>
-    <t>河濱郡</t>
+    <t>河滨郡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Census</t>
@@ -257,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>洛杉磯都會區</t>
+    <t>洛杉矶都会区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Los_Angeles_metropolitan_area</t>
@@ -1713,7 +1707,7 @@
         <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -1739,10 +1733,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1768,10 +1762,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -1797,10 +1791,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -1826,10 +1820,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1855,10 +1849,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1884,10 +1878,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1913,10 +1907,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1942,10 +1936,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
